--- a/Small Instances/Small4.xlsx
+++ b/Small Instances/Small4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobnitter/Documents/NTNU/Prosjektoppgave/Small Instances/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Small Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35228C9C-C915-404C-9DE0-A12B3028F5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59CB421-B2EB-4CE1-A15F-51FFEFDB8E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Small4" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Reisetider" sheetId="3" r:id="rId4"/>
     <sheet name="Koordinater" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -59,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>Rider</t>
   </si>
@@ -1108,21 +1106,21 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1166,54 +1164,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:B11" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <v>Kolltveit</v>
       </c>
       <c r="C2" s="3">
-        <f>_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D2" s="4">
-        <f>_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.352223000000002</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2:F6" si="0">C2*111.021</f>
-        <v>554.37814551299994</v>
+        <f t="shared" ref="E2:F6" ca="1" si="1">C2*111.021</f>
+        <v>564.85408707299996</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.3641496830005</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f t="shared" ref="G2:G11" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
+        <v>Laksevåg</v>
       </c>
       <c r="H2" s="6">
-        <f>_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I2" s="63">
-        <f>_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.379098999999997</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:K6" si="1">H2*111.021</f>
-        <v>591.31594242300002</v>
+        <f t="shared" ref="J2:K6" ca="1" si="3">H2*111.021</f>
+        <v>584.50258365299999</v>
       </c>
       <c r="K2" s="8">
-        <f t="shared" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
-        <f t="array" ref="M2">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>38</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1238,54 +1238,56 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
+      <c r="B3" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Bildøyna</v>
       </c>
       <c r="C3" s="3">
-        <f>_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" si="2">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <f t="shared" ref="D3:D5" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
+        <v>60.354084999999998</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" si="0"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>566.88266278499998</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" si="0"/>
-        <v>6704.4084226710002</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6700.5708707849999</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Årstad</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H11" si="3">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <f t="shared" ref="H3:H11" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I3" s="63">
-        <f>_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
+        <v>60.363500999999999</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" si="1"/>
-        <v>591.31594242300002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>594.22380445500005</v>
       </c>
       <c r="K3" s="8">
-        <f t="shared" si="1"/>
-        <v>6705.1587025890003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M3" s="3" cm="1">
-        <f t="array" ref="M3">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
+        <v>46</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1312,36 +1314,36 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="str">
-        <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Telavåg</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
+        <f t="shared" ref="C4:C11" ca="1" si="6">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
         <v>4.9820219999999997</v>
       </c>
       <c r="D4" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>60.261564</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>553.10906446199999</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6690.2990968439999</v>
+      </c>
+      <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>60.261564</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
         <v>Årstad</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
@@ -1349,11 +1351,11 @@
         <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -1382,56 +1384,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Spjeld</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.0396080000000003</v>
+      </c>
+      <c r="D5" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
-      </c>
-      <c r="C5" s="3">
+        <v>60.390343000000001</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>559.50231976800001</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6704.5962702030001</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Ytrebygda</v>
+      </c>
+      <c r="H5" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -1452,56 +1454,56 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Knarrevik</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>572.0939885250001</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G6" s="3" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -1522,36 +1524,36 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
@@ -1571,7 +1573,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -1583,36 +1585,36 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="2"/>
         <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
@@ -1632,7 +1634,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -1644,56 +1646,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1705,56 +1707,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1766,56 +1768,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -1828,7 +1830,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1849,8 +1851,8 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1859,7 +1861,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -1869,7 +1871,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -1879,7 +1881,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -1889,7 +1891,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -1912,7 +1914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -1937,7 +1939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -1962,7 +1964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -1993,7 +1995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -2024,7 +2026,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -2056,7 +2058,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -2084,7 +2086,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -2112,7 +2114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -2140,7 +2142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -2168,7 +2170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -2196,7 +2198,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -2224,7 +2226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -2252,7 +2254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -2280,7 +2282,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -2308,7 +2310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -2334,7 +2336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -2362,7 +2364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -2390,7 +2392,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -2418,7 +2420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -2446,7 +2448,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -2474,7 +2476,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -2500,7 +2502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -2528,7 +2530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -2556,7 +2558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -2584,7 +2586,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -2612,7 +2614,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="58" t="s">
         <v>60</v>
       </c>
@@ -2632,7 +2634,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="58" t="s">
         <v>36</v>
       </c>
@@ -2652,7 +2654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -2672,7 +2674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -2692,19 +2694,19 @@
       <selection activeCell="N14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2748,7 +2750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -2820,7 +2822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -2894,56 +2896,56 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -2964,56 +2966,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -3034,56 +3036,56 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -3104,7 +3106,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3122,7 +3124,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -3140,7 +3142,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -3158,7 +3160,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -3176,7 +3178,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -3195,7 +3197,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -3216,12 +3218,12 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -3230,7 +3232,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -3240,7 +3242,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -3250,7 +3252,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -3260,7 +3262,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -3283,7 +3285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -3308,7 +3310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -3333,7 +3335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -3364,7 +3366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -3395,7 +3397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -3427,7 +3429,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -3455,7 +3457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -3483,7 +3485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -3511,7 +3513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -3539,7 +3541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -3567,7 +3569,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -3595,7 +3597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -3623,7 +3625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -3651,7 +3653,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -3679,7 +3681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -3705,7 +3707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -3733,7 +3735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -3761,7 +3763,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -3789,7 +3791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -3817,7 +3819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
@@ -3845,7 +3847,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -3871,7 +3873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -3899,7 +3901,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -3927,7 +3929,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -3955,7 +3957,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
@@ -3983,7 +3985,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="14" t="s">
         <v>60</v>
       </c>
@@ -4003,7 +4005,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="14" t="s">
         <v>36</v>
       </c>
@@ -4023,7 +4025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="58" t="s">
         <v>15</v>
       </c>
@@ -4043,7 +4045,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B932" s="11"/>
     </row>
   </sheetData>
@@ -4060,15 +4062,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="9" t="s">
         <v>61</v>
       </c>
@@ -4088,82 +4090,82 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="9" t="s">
         <v>82</v>
       </c>
@@ -4171,7 +4173,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>84</v>
       </c>
@@ -4182,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>68</v>
       </c>
@@ -4193,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
@@ -4204,7 +4206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
@@ -4215,7 +4217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>71</v>
       </c>
@@ -4226,7 +4228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>72</v>
       </c>
@@ -4237,7 +4239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>73</v>
       </c>
@@ -4248,7 +4250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>74</v>
       </c>
@@ -4259,7 +4261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
@@ -4270,7 +4272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
@@ -4281,7 +4283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
@@ -4292,7 +4294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>78</v>
       </c>
@@ -4303,7 +4305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>79</v>
       </c>
@@ -4314,7 +4316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>80</v>
       </c>
@@ -4325,7 +4327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>81</v>
       </c>
@@ -4350,9 +4352,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
         <v>28</v>
@@ -4367,7 +4369,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>25</v>
       </c>
@@ -4384,7 +4386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>27</v>
       </c>
@@ -4401,7 +4403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>40</v>
       </c>
@@ -4418,7 +4420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
@@ -4435,7 +4437,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
@@ -4452,7 +4454,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>38</v>
       </c>
@@ -4472,7 +4474,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>46</v>
       </c>
@@ -4492,7 +4494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>39</v>
       </c>
@@ -4512,7 +4514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>47</v>
       </c>
@@ -4532,7 +4534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>48</v>
       </c>
@@ -4552,7 +4554,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>34</v>
       </c>
@@ -4572,7 +4574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>37</v>
       </c>
@@ -4592,7 +4594,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>49</v>
       </c>
@@ -4612,7 +4614,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>35</v>
       </c>
@@ -4632,7 +4634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>50</v>
       </c>
@@ -4650,7 +4652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>51</v>
       </c>
@@ -4670,7 +4672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>52</v>
       </c>
@@ -4690,7 +4692,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>53</v>
       </c>
@@ -4710,7 +4712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>54</v>
       </c>
@@ -4730,7 +4732,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>55</v>
       </c>
@@ -4750,7 +4752,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>56</v>
       </c>
@@ -4768,7 +4770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
@@ -4788,7 +4790,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>57</v>
       </c>
@@ -4808,7 +4810,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>58</v>
       </c>
@@ -4828,7 +4830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>59</v>
       </c>
@@ -4848,7 +4850,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>60</v>
       </c>
@@ -4868,7 +4870,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>36</v>
       </c>
@@ -4888,7 +4890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="58" t="s">
         <v>15</v>
       </c>
@@ -4922,9 +4924,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
@@ -4944,7 +4946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
@@ -4964,7 +4966,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
@@ -4984,7 +4986,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -5004,7 +5006,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
@@ -5024,7 +5026,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
@@ -5035,7 +5037,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
@@ -5046,7 +5048,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
@@ -5057,7 +5059,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
@@ -5068,7 +5070,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
@@ -5079,7 +5081,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>

--- a/Small Instances/Small4.xlsx
+++ b/Small Instances/Small4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Small Instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacobni\SamkjøringKode\samkjoring2022\Small Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59CB421-B2EB-4CE1-A15F-51FFEFDB8E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001CF711-F324-40FE-80BB-7CDAC4D76E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="87">
   <si>
     <t>Rider</t>
   </si>
@@ -318,21 +318,6 @@
   </si>
   <si>
     <t>Small</t>
-  </si>
-  <si>
-    <t>0800, 0834</t>
-  </si>
-  <si>
-    <t>0800, 0835</t>
-  </si>
-  <si>
-    <t>0800, 0836</t>
-  </si>
-  <si>
-    <t>0800, 0837</t>
-  </si>
-  <si>
-    <t>0800, 0838</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1091,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1170,50 +1155,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B11" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F6" ca="1" si="1">C2*111.021</f>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G11" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K6" ca="1" si="3">H2*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
-        <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*1.5</f>
+        <v>33</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1244,50 +1229,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D5" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H11" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
-        <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*1.5</f>
+        <v>70.5</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1320,23 +1305,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="6">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1359,11 +1344,11 @@
         <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
-        <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*1.5</f>
+        <v>40.5</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -1410,30 +1395,30 @@
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
-        <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*1.5</f>
+        <v>43.5</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -1460,50 +1445,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
-        <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*1.5</f>
+        <v>66</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -1569,11 +1554,11 @@
         <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
-        <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*1.5</f>
+        <v>27</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -1591,23 +1576,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1630,11 +1615,11 @@
         <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
-        <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*1.5</f>
+        <v>39</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -1672,30 +1657,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
-        <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*1.5</f>
+        <v>22.5</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1713,50 +1698,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
-        <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*1.5</f>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1774,23 +1759,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1813,11 +1798,11 @@
         <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
-        <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*1.5</f>
+        <v>28.5</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -2902,50 +2887,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -2972,50 +2957,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -3042,50 +3027,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
